--- a/app/Licenciatura_em_Ensino_de_Ingles_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Ensino_de_Ingles_Pos_Laboral.xlsx
@@ -10,39 +10,37 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20152103" sheetId="2" r:id="rId5"/>
-    <sheet name="20154442" sheetId="3" r:id="rId6"/>
-    <sheet name="20152086" sheetId="4" r:id="rId7"/>
-    <sheet name="20152089" sheetId="5" r:id="rId8"/>
-    <sheet name="20152093" sheetId="6" r:id="rId9"/>
-    <sheet name="20152084" sheetId="7" r:id="rId10"/>
-    <sheet name="20152076" sheetId="8" r:id="rId11"/>
-    <sheet name="20152082" sheetId="9" r:id="rId12"/>
-    <sheet name="20152087" sheetId="10" r:id="rId13"/>
-    <sheet name="20152096" sheetId="11" r:id="rId14"/>
-    <sheet name="20152104" sheetId="12" r:id="rId15"/>
-    <sheet name="20152101" sheetId="13" r:id="rId16"/>
-    <sheet name="20152075" sheetId="14" r:id="rId17"/>
-    <sheet name="20152078" sheetId="15" r:id="rId18"/>
-    <sheet name="20152083" sheetId="16" r:id="rId19"/>
-    <sheet name="20152088" sheetId="17" r:id="rId20"/>
-    <sheet name="20152092" sheetId="18" r:id="rId21"/>
-    <sheet name="20152081" sheetId="19" r:id="rId22"/>
-    <sheet name="20152077" sheetId="20" r:id="rId23"/>
-    <sheet name="20152097" sheetId="21" r:id="rId24"/>
-    <sheet name="20152094" sheetId="22" r:id="rId25"/>
-    <sheet name="20152102" sheetId="23" r:id="rId26"/>
-    <sheet name="20152085" sheetId="24" r:id="rId27"/>
-    <sheet name="20152079" sheetId="25" r:id="rId28"/>
-    <sheet name="20152100" sheetId="26" r:id="rId29"/>
-    <sheet name="20154440" sheetId="27" r:id="rId30"/>
-    <sheet name="20152091" sheetId="28" r:id="rId31"/>
-    <sheet name="20152095" sheetId="29" r:id="rId32"/>
-    <sheet name="20152080" sheetId="30" r:id="rId33"/>
-    <sheet name="20152099" sheetId="31" r:id="rId34"/>
-    <sheet name="20152090" sheetId="32" r:id="rId35"/>
-    <sheet name="20152098" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId38"/>
+    <sheet name="20152086" sheetId="3" r:id="rId6"/>
+    <sheet name="20152089" sheetId="4" r:id="rId7"/>
+    <sheet name="20152093" sheetId="5" r:id="rId8"/>
+    <sheet name="20152084" sheetId="6" r:id="rId9"/>
+    <sheet name="20152076" sheetId="7" r:id="rId10"/>
+    <sheet name="20152082" sheetId="8" r:id="rId11"/>
+    <sheet name="20152087" sheetId="9" r:id="rId12"/>
+    <sheet name="20152096" sheetId="10" r:id="rId13"/>
+    <sheet name="20152104" sheetId="11" r:id="rId14"/>
+    <sheet name="20152101" sheetId="12" r:id="rId15"/>
+    <sheet name="20152075" sheetId="13" r:id="rId16"/>
+    <sheet name="20152078" sheetId="14" r:id="rId17"/>
+    <sheet name="20152083" sheetId="15" r:id="rId18"/>
+    <sheet name="20152088" sheetId="16" r:id="rId19"/>
+    <sheet name="20152092" sheetId="17" r:id="rId20"/>
+    <sheet name="20152081" sheetId="18" r:id="rId21"/>
+    <sheet name="20152077" sheetId="19" r:id="rId22"/>
+    <sheet name="20152097" sheetId="20" r:id="rId23"/>
+    <sheet name="20152094" sheetId="21" r:id="rId24"/>
+    <sheet name="20152102" sheetId="22" r:id="rId25"/>
+    <sheet name="20152085" sheetId="23" r:id="rId26"/>
+    <sheet name="20152079" sheetId="24" r:id="rId27"/>
+    <sheet name="20152100" sheetId="25" r:id="rId28"/>
+    <sheet name="20152091" sheetId="26" r:id="rId29"/>
+    <sheet name="20152095" sheetId="27" r:id="rId30"/>
+    <sheet name="20152080" sheetId="28" r:id="rId31"/>
+    <sheet name="20152099" sheetId="29" r:id="rId32"/>
+    <sheet name="20152090" sheetId="30" r:id="rId33"/>
+    <sheet name="20152098" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -199,9 +197,6 @@
     <t>Gracinda Lucas Sique</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -223,15 +218,6 @@
     <t>Escola Francisco Manyanga</t>
   </si>
   <si>
-    <t>Tembe</t>
-  </si>
-  <si>
-    <t>Isabel Giberto</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Tcheco</t>
   </si>
   <si>
@@ -247,9 +233,6 @@
     <t>Cristina Virginia Covo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -277,9 +260,6 @@
     <t>Elisa Afonso Chicane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -358,9 +338,6 @@
     <t>Arlete Domingos Mazuze</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>1101004600565I</t>
   </si>
   <si>
@@ -523,9 +500,6 @@
     <t>Telma Da Conceicao Magaia</t>
   </si>
   <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
     <t>110500512331P</t>
   </si>
   <si>
@@ -550,9 +524,6 @@
     <t>Salmina Mahumane</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>100104926887J</t>
   </si>
   <si>
@@ -640,9 +611,6 @@
     <t>Amelia Luis Manjate</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>090900929751A</t>
   </si>
   <si>
@@ -685,9 +653,6 @@
     <t>FÁtima Chachuaio</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500767814I</t>
   </si>
   <si>
@@ -754,9 +719,6 @@
     <t>Vitorina Arrone Timane</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100100622821F</t>
   </si>
   <si>
@@ -778,9 +740,6 @@
     <t>Luisa Pinto Chauque</t>
   </si>
   <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
     <t>Passaporte</t>
   </si>
   <si>
@@ -790,12 +749,6 @@
     <t>+258826389175</t>
   </si>
   <si>
-    <t>Costa</t>
-  </si>
-  <si>
-    <t>Sebastião da</t>
-  </si>
-  <si>
     <t>Come</t>
   </si>
   <si>
@@ -833,9 +786,6 @@
   </si>
   <si>
     <t>Deolinda Magaia</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
   </si>
   <si>
     <t>110504068457F</t>
@@ -2164,7 +2114,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152087</v>
+        <v>20152096</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2188,7 +2138,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2204,7 +2154,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2220,7 +2170,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2236,7 +2186,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2252,7 +2202,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2267,9 +2217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2277,7 +2225,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2288,7 +2236,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2297,7 +2245,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2309,15 +2257,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>119</v>
+      <c r="H17" s="20">
+        <v>4188972</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2413,7 +2361,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2440,7 +2388,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1992</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2456,7 +2404,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2759,7 +2707,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152096</v>
+        <v>20152104</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2862,9 +2810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2872,7 +2818,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2883,7 +2829,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2892,7 +2838,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2904,15 +2850,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>4188972</v>
+      <c r="H17" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3051,7 +2997,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3354,7 +3300,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152104</v>
+        <v>20152101</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3378,7 +3324,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3394,7 +3340,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3410,7 +3356,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3426,7 +3372,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3442,7 +3388,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3457,9 +3403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3467,7 +3411,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3478,7 +3422,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3487,7 +3431,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3499,7 +3443,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3507,7 +3451,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3603,7 +3547,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3630,7 +3574,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3646,7 +3590,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3949,7 +3893,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152101</v>
+        <v>20152075</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4052,9 +3996,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4062,7 +4004,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4073,7 +4015,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4082,7 +4024,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4094,7 +4036,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4241,7 +4183,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4544,7 +4486,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152075</v>
+        <v>20152078</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4568,7 +4510,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4584,7 +4526,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4600,7 +4542,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4616,7 +4558,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4632,7 +4574,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4647,9 +4589,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4657,7 +4597,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4668,7 +4608,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4677,7 +4617,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4689,7 +4629,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4697,7 +4637,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4793,7 +4733,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4820,7 +4760,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4836,7 +4776,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5139,7 +5079,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152078</v>
+        <v>20152083</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5163,7 +5103,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5179,7 +5119,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5195,7 +5135,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5211,7 +5151,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5227,7 +5167,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5242,9 +5182,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5252,7 +5190,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5263,7 +5201,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5272,7 +5210,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5284,7 +5222,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5415,7 +5353,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>1979</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5734,7 +5672,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152083</v>
+        <v>20152088</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5837,9 +5775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>166</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5847,7 +5783,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5858,7 +5794,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5867,7 +5803,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5879,7 +5815,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5887,7 +5823,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5983,7 +5919,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6010,7 +5946,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1979</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6026,7 +5962,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6329,7 +6265,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152088</v>
+        <v>20152092</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6353,7 +6289,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6369,7 +6305,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6385,7 +6321,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6401,7 +6337,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6417,7 +6353,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6432,9 +6368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6442,7 +6376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6453,7 +6387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6462,7 +6396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6474,7 +6408,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6482,7 +6416,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6578,7 +6512,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6605,7 +6539,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6621,7 +6555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6924,7 +6858,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152092</v>
+        <v>20152081</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6948,7 +6882,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6964,7 +6898,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6980,7 +6914,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6996,7 +6930,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7012,7 +6946,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7027,9 +6961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7037,7 +6969,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7048,7 +6980,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7057,7 +6989,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7069,7 +7001,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7077,7 +7009,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7173,7 +7105,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7200,7 +7132,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7216,7 +7148,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7519,7 +7451,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152081</v>
+        <v>20152077</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7543,7 +7475,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7559,7 +7491,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7575,7 +7507,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7591,7 +7523,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7607,7 +7539,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7622,9 +7554,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7632,7 +7562,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7643,7 +7573,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7652,7 +7582,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7664,7 +7594,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7672,7 +7602,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7768,7 +7698,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7795,7 +7725,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1997</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7811,7 +7741,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8217,9 +8147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8227,7 +8155,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8238,7 +8166,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8247,7 +8175,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8259,7 +8187,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8267,7 +8195,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8363,7 +8291,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8406,7 +8334,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8709,7 +8637,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152077</v>
+        <v>20152097</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8733,7 +8661,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8749,7 +8677,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8765,7 +8693,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8781,7 +8709,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8797,7 +8725,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8812,9 +8740,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8822,7 +8748,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8833,7 +8759,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8842,7 +8768,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8854,7 +8780,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8862,7 +8788,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8958,7 +8884,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9001,7 +8927,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9304,7 +9230,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152097</v>
+        <v>20152094</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9328,7 +9254,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9344,7 +9270,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9360,7 +9286,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9376,7 +9302,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9392,7 +9318,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9407,9 +9333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9417,7 +9341,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9428,7 +9352,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9437,7 +9361,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9449,7 +9373,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9457,7 +9381,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9553,7 +9477,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9596,7 +9520,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9899,7 +9823,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152094</v>
+        <v>20152102</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9923,7 +9847,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9939,7 +9863,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9955,7 +9879,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9971,7 +9895,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9987,7 +9911,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10002,9 +9926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10012,7 +9934,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10023,7 +9945,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10032,7 +9954,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10044,7 +9966,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10052,7 +9974,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10148,7 +10070,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10175,7 +10097,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10191,7 +10113,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10494,7 +10416,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152102</v>
+        <v>20152085</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10518,7 +10440,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10534,7 +10456,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10550,7 +10472,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10566,7 +10488,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10582,7 +10504,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10597,9 +10519,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10607,7 +10527,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10618,7 +10538,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10627,7 +10547,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10639,7 +10559,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10647,7 +10567,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10743,7 +10663,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10770,7 +10690,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10786,7 +10706,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11089,7 +11009,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152085</v>
+        <v>20152079</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11113,7 +11033,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11129,7 +11049,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11145,7 +11065,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11161,7 +11081,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11177,7 +11097,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11192,9 +11112,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11202,7 +11120,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11213,7 +11131,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11222,7 +11140,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11234,7 +11152,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11242,7 +11160,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11338,7 +11256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11365,7 +11283,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11381,7 +11299,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11684,7 +11602,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152079</v>
+        <v>20152100</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11708,7 +11626,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11724,7 +11642,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11740,7 +11658,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11756,7 +11674,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11772,7 +11690,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11787,9 +11705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>234</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11797,7 +11713,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11808,7 +11724,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11817,7 +11733,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11829,7 +11745,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11837,7 +11753,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11933,7 +11849,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11960,7 +11876,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11976,7 +11892,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12279,7 +12195,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152100</v>
+        <v>20152091</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12303,7 +12219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12319,7 +12235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12335,7 +12251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12351,7 +12267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12367,7 +12283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12382,9 +12298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>242</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12392,7 +12306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12403,7 +12317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12412,7 +12326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12424,7 +12338,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12432,7 +12346,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12528,7 +12442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12555,7 +12469,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12571,7 +12485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12822,7 +12736,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12872,7 +12788,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154440</v>
+        <v>20152095</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12896,7 +12812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12912,7 +12828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12927,7 +12843,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12941,7 +12859,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>244</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12955,7 +12875,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>245</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12976,7 +12898,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12985,14 +12909,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -13002,13 +12930,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -13103,7 +13035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13129,7 +13061,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -13143,7 +13077,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13445,7 +13381,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152091</v>
+        <v>20152080</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13548,9 +13484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13558,7 +13492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13569,7 +13503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13578,7 +13512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13590,7 +13524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13721,7 +13655,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13737,7 +13671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14040,7 +13974,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152095</v>
+        <v>20152099</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14064,7 +13998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14080,7 +14014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14096,7 +14030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14112,7 +14046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14128,7 +14062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14143,9 +14077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>261</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14153,7 +14085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14164,7 +14096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14173,7 +14105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14185,7 +14117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14193,7 +14125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14289,7 +14221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14316,7 +14248,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14332,7 +14264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14583,7 +14515,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -14633,7 +14567,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154442</v>
+        <v>20152086</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14657,7 +14591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14673,7 +14607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14688,7 +14622,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14702,7 +14638,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14716,7 +14654,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14737,7 +14677,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14746,14 +14688,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14763,13 +14709,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14864,7 +14814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14890,7 +14840,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14904,7 +14856,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15206,7 +15160,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152080</v>
+        <v>20152090</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15230,7 +15184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15246,7 +15200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15262,7 +15216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15278,7 +15232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15294,7 +15248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15309,9 +15263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>261</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15319,7 +15271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15330,7 +15282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15339,7 +15291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15351,7 +15303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15359,7 +15311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15455,7 +15407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15482,7 +15434,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15498,7 +15450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15801,7 +15753,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152099</v>
+        <v>20152098</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15825,7 +15777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15841,7 +15793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15857,7 +15809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15873,7 +15825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15889,7 +15841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15904,9 +15856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15914,7 +15864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15925,7 +15875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15934,7 +15884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15946,7 +15896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15954,7 +15904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16050,7 +16000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16077,7 +16027,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16093,7 +16043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16296,1196 +16246,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152090</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152098</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -17509,7 +16269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17642,7 +16402,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152086</v>
+        <v>20152089</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17666,7 +16426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17682,7 +16442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17698,7 +16458,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17714,7 +16474,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17730,7 +16490,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17745,9 +16505,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17755,7 +16513,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17766,7 +16524,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17775,7 +16533,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17787,7 +16545,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17795,7 +16553,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17891,7 +16649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17934,7 +16692,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18237,7 +16995,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152089</v>
+        <v>20152093</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18261,7 +17019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18277,7 +17035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18293,7 +17051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18309,7 +17067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18325,7 +17083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18340,9 +17098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18350,7 +17106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18361,7 +17117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18370,7 +17126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18382,7 +17138,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18390,7 +17146,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18486,7 +17242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18529,7 +17285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18832,7 +17588,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152093</v>
+        <v>20152084</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18856,7 +17612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18872,7 +17628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18888,7 +17644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18904,7 +17660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18920,7 +17676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18935,9 +17691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18945,7 +17699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18956,7 +17710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18965,7 +17719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18977,7 +17731,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18985,7 +17739,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19081,7 +17835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19108,7 +17862,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19124,7 +17878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19427,7 +18181,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152084</v>
+        <v>20152076</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19451,7 +18205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19467,7 +18221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19483,7 +18237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19499,7 +18253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19515,7 +18269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19530,9 +18284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19540,7 +18292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19551,7 +18303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19560,7 +18312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19572,7 +18324,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19580,7 +18332,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19676,7 +18428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19719,7 +18471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20022,7 +18774,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152076</v>
+        <v>20152082</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20046,7 +18798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20062,7 +18814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20078,7 +18830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20094,7 +18846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20110,7 +18862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20125,9 +18877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20135,7 +18885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20146,7 +18896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20155,7 +18905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20167,7 +18917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20175,7 +18925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20271,7 +19021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20298,7 +19048,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20314,7 +19064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20617,7 +19367,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152082</v>
+        <v>20152087</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20641,7 +19391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20657,7 +19407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20673,7 +19423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20689,7 +19439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20705,7 +19455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20720,9 +19470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20730,7 +19478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20741,7 +19489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20750,7 +19498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20762,7 +19510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20770,7 +19518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20866,7 +19614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20893,7 +19641,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20909,7 +19657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
